--- a/Gears/2022_aug_01_MD_Gears_and_center_of_mass.xlsx
+++ b/Gears/2022_aug_01_MD_Gears_and_center_of_mass.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Tube_Frame_Printer\Gears\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C56F7C2-CDB7-4262-99AC-814D2550A73A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A508297-6382-413F-9FE1-8F3722A23CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12383" xr2:uid="{6BBA6CB6-145E-4CA8-998B-9EBE8A47EFC2}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12383" activeTab="2" xr2:uid="{6BBA6CB6-145E-4CA8-998B-9EBE8A47EFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed Calcs Teknic Mtrs" sheetId="2" r:id="rId2"/>
+    <sheet name="Pulley Lift Capacity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Pitch (in)</t>
   </si>
@@ -46,16 +48,182 @@
   </si>
   <si>
     <t>Metric (mm)</t>
+  </si>
+  <si>
+    <t>Model Number</t>
+  </si>
+  <si>
+    <t>Gear Red
+(xx-&gt;1)</t>
+  </si>
+  <si>
+    <t>Pulley Ratio
+(xx-&gt;1)</t>
+  </si>
+  <si>
+    <t>Combined
+Reduction
+(xx-&gt;1)</t>
+  </si>
+  <si>
+    <t>Output
+Shaft
+Speed
+(rpm)</t>
+  </si>
+  <si>
+    <t>Input
+Freq
+(Hz)</t>
+  </si>
+  <si>
+    <t>Steps
+per
+Rev</t>
+  </si>
+  <si>
+    <t>Max
+Cont Speed
+(RPM)</t>
+  </si>
+  <si>
+    <t>Cont
+Torque
+(in-oz)</t>
+  </si>
+  <si>
+    <t>Cont Torque
+(ft-lbs)</t>
+  </si>
+  <si>
+    <t>Actual
+Speed
+(rpm)</t>
+  </si>
+  <si>
+    <t>Max
+Freq
+Input
+(Hz)</t>
+  </si>
+  <si>
+    <t>CPM-SDSK-3441S-ELS</t>
+  </si>
+  <si>
+    <t>Peak
+Torque
+(ft-lbs)</t>
+  </si>
+  <si>
+    <t>Peak
+Torque
+(in-oz)</t>
+  </si>
+  <si>
+    <t>Peak Output
+Shaft
+Torque
+(ft-lbs)</t>
+  </si>
+  <si>
+    <t>Output
+Shaft
+Torque
+(ft-lbs)</t>
+  </si>
+  <si>
+    <t>CPM-SDHP-2346P-ELS</t>
+  </si>
+  <si>
+    <t>Pulley model</t>
+  </si>
+  <si>
+    <t>Pitch
+Dia
+(in)</t>
+  </si>
+  <si>
+    <t>Cont
+Torque
+(ft-lbs)</t>
+  </si>
+  <si>
+    <t>Peak
+Lift
+(Kgs)</t>
+  </si>
+  <si>
+    <t>Cont
+Lift
+(Kgs)</t>
+  </si>
+  <si>
+    <t>Peak
+Lift
+(lbs)</t>
+  </si>
+  <si>
+    <t>Cont
+Lift
+(lbs)</t>
+  </si>
+  <si>
+    <t>McMaster, 6495K109, L-series</t>
+  </si>
+  <si>
+    <t>Cost $</t>
+  </si>
+  <si>
+    <t>Cost $ Qty 1</t>
+  </si>
+  <si>
+    <t>McMaster, 6495K15, L-series</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Gearbox?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shaft Speed
+(rpms)</t>
+  </si>
+  <si>
+    <t>Belt
+Speed
+(in/min)</t>
+  </si>
+  <si>
+    <t>Pulley
+Circ
+(in/rev)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,15 +249,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0610B951-4C18-4FF3-A094-02D85E07D67E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -491,4 +674,660 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC131CB-A231-466C-89C6-600E70A90244}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.06640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="9" width="9.86328125" customWidth="1"/>
+    <col min="10" max="11" width="12.265625" customWidth="1"/>
+    <col min="17" max="17" width="11.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7">
+        <v>506</v>
+      </c>
+      <c r="C2">
+        <v>9333</v>
+      </c>
+      <c r="D2">
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <f>C2*60/D2</f>
+        <v>699.97500000000002</v>
+      </c>
+      <c r="F2">
+        <v>479</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2*0.0052083333474261</f>
+        <v>2.4947916734171018</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1844</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2*0.0052083333474261</f>
+        <v>9.6041666926537275</v>
+      </c>
+      <c r="J2">
+        <v>700</v>
+      </c>
+      <c r="K2" s="6">
+        <f>J2/60*D2</f>
+        <v>9333.3333333333321</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f>L2*M2</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="2">
+        <f>E2/N2</f>
+        <v>349.98750000000001</v>
+      </c>
+      <c r="P2" s="2">
+        <f>G2*N2</f>
+        <v>4.9895833468342037</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>I2*N2</f>
+        <v>19.208333385307455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>506</v>
+      </c>
+      <c r="C3">
+        <v>9333</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <f>C3*60/D3</f>
+        <v>699.97500000000002</v>
+      </c>
+      <c r="F3">
+        <v>479</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3*0.0052083333474261</f>
+        <v>2.4947916734171018</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1844</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I6" si="0">H3*0.0052083333474261</f>
+        <v>9.6041666926537275</v>
+      </c>
+      <c r="J3">
+        <v>700</v>
+      </c>
+      <c r="K3" s="6">
+        <f>J3/60*D3</f>
+        <v>9333.3333333333321</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>L3*M3</f>
+        <v>60</v>
+      </c>
+      <c r="O3" s="2">
+        <f>E3/N3</f>
+        <v>11.66625</v>
+      </c>
+      <c r="P3" s="2">
+        <f>G3*N3</f>
+        <v>149.6875004050261</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q4" si="1">I3*N3</f>
+        <v>576.25000155922362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7">
+        <v>645</v>
+      </c>
+      <c r="C4">
+        <v>46667</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <f>C4*60/D4</f>
+        <v>3500.0250000000001</v>
+      </c>
+      <c r="F4">
+        <v>104</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F4*0.0052083333474261</f>
+        <v>0.54166666813231434</v>
+      </c>
+      <c r="H4" s="4">
+        <v>621</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2343750087516079</v>
+      </c>
+      <c r="J4">
+        <v>3500</v>
+      </c>
+      <c r="K4" s="6">
+        <f>J4/60*D4</f>
+        <v>46666.666666666672</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f>L4*M4</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <f>E4/N4</f>
+        <v>1750.0125</v>
+      </c>
+      <c r="P4" s="2">
+        <f>G4*N4</f>
+        <v>1.0833333362646287</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4687500175032158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>645</v>
+      </c>
+      <c r="C5">
+        <v>46667</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <f>C5*60/D5</f>
+        <v>3500.0250000000001</v>
+      </c>
+      <c r="F5">
+        <v>104</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5*0.0052083333474261</f>
+        <v>0.54166666813231434</v>
+      </c>
+      <c r="H5" s="4">
+        <v>621</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2343750087516079</v>
+      </c>
+      <c r="J5">
+        <v>3500</v>
+      </c>
+      <c r="K5" s="6">
+        <f>J5/60*D5</f>
+        <v>46666.666666666672</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f>L5*M5</f>
+        <v>60</v>
+      </c>
+      <c r="O5" s="2">
+        <f>E5/N5</f>
+        <v>58.333750000000002</v>
+      </c>
+      <c r="P5" s="2">
+        <f>G5*N5</f>
+        <v>32.500000087938858</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5" si="2">I5*N5</f>
+        <v>194.06250052509648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>645</v>
+      </c>
+      <c r="C6">
+        <v>46667</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <f>C6*60/D6</f>
+        <v>3500.0250000000001</v>
+      </c>
+      <c r="F6">
+        <v>104</v>
+      </c>
+      <c r="G6" s="4">
+        <f>F6*0.0052083333474261</f>
+        <v>0.54166666813231434</v>
+      </c>
+      <c r="H6" s="4">
+        <v>621</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2343750087516079</v>
+      </c>
+      <c r="J6">
+        <v>3500</v>
+      </c>
+      <c r="K6" s="6">
+        <f>J6/60*D6</f>
+        <v>46666.666666666672</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>L6*M6</f>
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <f>E6/N6</f>
+        <v>116.6675</v>
+      </c>
+      <c r="P6" s="2">
+        <f>G6*N6</f>
+        <v>16.250000043969429</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" ref="Q6" si="3">I6*N6</f>
+        <v>97.031250262548241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD0D8DA-44C0-4873-9829-69F67EFF7F74}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>90.65</v>
+      </c>
+      <c r="C2">
+        <v>3.0625</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>2.4948000000000001</v>
+      </c>
+      <c r="G2">
+        <v>9.6042000000000005</v>
+      </c>
+      <c r="H2" s="5">
+        <f>F2*12/(C2/2)</f>
+        <v>19.551085714285716</v>
+      </c>
+      <c r="I2" s="5">
+        <f>G2*12/(C2/2)</f>
+        <v>75.265567346938781</v>
+      </c>
+      <c r="J2" s="5">
+        <f>H2/2.2</f>
+        <v>8.8868571428571421</v>
+      </c>
+      <c r="K2" s="5">
+        <f>I2/2.2</f>
+        <v>34.211621521335807</v>
+      </c>
+      <c r="L2" s="5">
+        <f>3.14159*C2</f>
+        <v>9.6211193749999993</v>
+      </c>
+      <c r="M2">
+        <v>700</v>
+      </c>
+      <c r="N2" s="6">
+        <f>M2*L2</f>
+        <v>6734.7835624999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>35.53</v>
+      </c>
+      <c r="C3">
+        <v>1.91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>2.4948000000000001</v>
+      </c>
+      <c r="G3">
+        <v>9.6042000000000005</v>
+      </c>
+      <c r="H3" s="5">
+        <f>F3*12/(C3/2)</f>
+        <v>31.348272251308906</v>
+      </c>
+      <c r="I3" s="5">
+        <f>G3*12/(C3/2)</f>
+        <v>120.68104712041887</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3/2.2</f>
+        <v>14.249214659685865</v>
+      </c>
+      <c r="K3" s="5">
+        <f>I3/2.2</f>
+        <v>54.85502141837221</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L5" si="0">3.14159*C3</f>
+        <v>6.0004368999999995</v>
+      </c>
+      <c r="M3">
+        <v>700</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" ref="N3:N5" si="1">M3*L3</f>
+        <v>4200.3058299999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>35.53</v>
+      </c>
+      <c r="C4">
+        <v>1.91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="G4">
+        <v>3.2343999999999999</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4*12/(C4/2)</f>
+        <v>6.8067015706806275</v>
+      </c>
+      <c r="I4" s="5">
+        <f>G4*12/(C4/2)</f>
+        <v>40.641675392670152</v>
+      </c>
+      <c r="J4" s="5">
+        <f>H4/2.2</f>
+        <v>3.093955259400285</v>
+      </c>
+      <c r="K4" s="5">
+        <f>I4/2.2</f>
+        <v>18.473488814850068</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0004368999999995</v>
+      </c>
+      <c r="M4">
+        <v>3500</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
+        <v>21001.529149999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>35.53</v>
+      </c>
+      <c r="C5">
+        <v>1.91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>16.25</v>
+      </c>
+      <c r="G5">
+        <v>97.03</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5*12/(C5/2)</f>
+        <v>204.18848167539267</v>
+      </c>
+      <c r="I5" s="5">
+        <f>G5*12/(C5/2)</f>
+        <v>1219.2251308900525</v>
+      </c>
+      <c r="J5" s="5">
+        <f>H5/2.2</f>
+        <v>92.812946216087568</v>
+      </c>
+      <c r="K5" s="5">
+        <f>I5/2.2</f>
+        <v>554.19324131366022</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0004368999999995</v>
+      </c>
+      <c r="M5">
+        <v>116.67</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
+        <v>700.07097312299993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>1.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gears/2022_aug_01_MD_Gears_and_center_of_mass.xlsx
+++ b/Gears/2022_aug_01_MD_Gears_and_center_of_mass.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Tube_Frame_Printer\Gears\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A508297-6382-413F-9FE1-8F3722A23CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833992A9-AA6A-4058-875C-97ACEA904469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12383" activeTab="2" xr2:uid="{6BBA6CB6-145E-4CA8-998B-9EBE8A47EFC2}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12383" activeTab="3" xr2:uid="{6BBA6CB6-145E-4CA8-998B-9EBE8A47EFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Speed Calcs Teknic Mtrs" sheetId="2" r:id="rId2"/>
     <sheet name="Pulley Lift Capacity" sheetId="3" r:id="rId3"/>
+    <sheet name="Table_Torque" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Pitch (in)</t>
   </si>
@@ -204,6 +205,66 @@
     <t>Pulley
 Circ
 (in/rev)</t>
+  </si>
+  <si>
+    <t>Part no.</t>
+  </si>
+  <si>
+    <t>Part Description</t>
+  </si>
+  <si>
+    <t>Mass
+(kg)</t>
+  </si>
+  <si>
+    <t>Torque
+(N-m)</t>
+  </si>
+  <si>
+    <t>Force
+(N)</t>
+  </si>
+  <si>
+    <t>COM to Axis
+(mm)</t>
+  </si>
+  <si>
+    <t>Torque
+Arm
+(m)</t>
+  </si>
+  <si>
+    <t>C-axis Assembly w chuck</t>
+  </si>
+  <si>
+    <t>C-axis Assembly no chuck</t>
+  </si>
+  <si>
+    <t>C-axis Assembly+chuck+29KG_2in_disk</t>
+  </si>
+  <si>
+    <t>Torque
+(in-lbs)</t>
+  </si>
+  <si>
+    <t>Torque
+(ft-lbs)</t>
+  </si>
+  <si>
+    <t>Torque
+(oz-in)</t>
+  </si>
+  <si>
+    <t>Worm
+Gear
+Ratio
+(in/out)</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Motor Input</t>
   </si>
 </sst>
 </file>
@@ -240,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,12 +309,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,6 +344,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD0D8DA-44C0-4873-9829-69F67EFF7F74}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1153,11 +1242,11 @@
         <v>75.265567346938781</v>
       </c>
       <c r="J2" s="5">
-        <f>H2/2.2</f>
+        <f t="shared" ref="J2:K5" si="0">H2/2.2</f>
         <v>8.8868571428571421</v>
       </c>
       <c r="K2" s="5">
-        <f>I2/2.2</f>
+        <f t="shared" si="0"/>
         <v>34.211621521335807</v>
       </c>
       <c r="L2" s="5">
@@ -1203,22 +1292,22 @@
         <v>120.68104712041887</v>
       </c>
       <c r="J3" s="5">
-        <f>H3/2.2</f>
+        <f t="shared" si="0"/>
         <v>14.249214659685865</v>
       </c>
       <c r="K3" s="5">
-        <f>I3/2.2</f>
+        <f t="shared" si="0"/>
         <v>54.85502141837221</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L5" si="0">3.14159*C3</f>
+        <f t="shared" ref="L3:L5" si="1">3.14159*C3</f>
         <v>6.0004368999999995</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:N5" si="1">M3*L3</f>
+        <f t="shared" ref="N3:N5" si="2">M3*L3</f>
         <v>4200.3058299999993</v>
       </c>
     </row>
@@ -1253,22 +1342,22 @@
         <v>40.641675392670152</v>
       </c>
       <c r="J4" s="5">
-        <f>H4/2.2</f>
+        <f t="shared" si="0"/>
         <v>3.093955259400285</v>
       </c>
       <c r="K4" s="5">
-        <f>I4/2.2</f>
+        <f t="shared" si="0"/>
         <v>18.473488814850068</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0004368999999995</v>
       </c>
       <c r="M4">
         <v>3500</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21001.529149999998</v>
       </c>
     </row>
@@ -1303,22 +1392,22 @@
         <v>1219.2251308900525</v>
       </c>
       <c r="J5" s="5">
-        <f>H5/2.2</f>
+        <f t="shared" si="0"/>
         <v>92.812946216087568</v>
       </c>
       <c r="K5" s="5">
-        <f>I5/2.2</f>
+        <f t="shared" si="0"/>
         <v>554.19324131366022</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0004368999999995</v>
       </c>
       <c r="M5">
         <v>116.67</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700.07097312299993</v>
       </c>
     </row>
@@ -1330,4 +1419,265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5650D-1D8A-4D08-BF6C-CC761792DCDB}">
+  <dimension ref="A2:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="9"/>
+    <col min="2" max="2" width="36.265625" customWidth="1"/>
+    <col min="3" max="7" width="9.06640625" style="9"/>
+    <col min="11" max="11" width="9.06640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
+        <v>28.585999999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <f>C4*9.8066500286389</f>
+        <v>280.33289771867157</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-21.733000000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <f>E4/1000</f>
+        <v>-2.1732999999999999E-2</v>
+      </c>
+      <c r="G4" s="10">
+        <f>F4*D4</f>
+        <v>-6.0924748661198889</v>
+      </c>
+      <c r="H4" s="11">
+        <f>C4*2.2*E4/25.4</f>
+        <v>-53.809881244094498</v>
+      </c>
+      <c r="I4" s="11">
+        <f>H4/12</f>
+        <v>-4.4841567703412082</v>
+      </c>
+      <c r="J4" s="11">
+        <f>C4*2.2*16*E4/25.4</f>
+        <v>-860.95809990551197</v>
+      </c>
+      <c r="K4" s="10">
+        <v>30</v>
+      </c>
+      <c r="L4" s="11">
+        <f>G4/$K4</f>
+        <v>-0.20308249553732963</v>
+      </c>
+      <c r="M4" s="11">
+        <f>H4/$K4</f>
+        <v>-1.7936627081364833</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:O4" si="0">I4/$K4</f>
+        <v>-0.14947189234470695</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>-28.698603330183733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="10">
+        <v>18.8</v>
+      </c>
+      <c r="D5" s="10">
+        <f>C5*9.8066500286389</f>
+        <v>184.36502053841133</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-38.79</v>
+      </c>
+      <c r="F5" s="10">
+        <f>E5/1000</f>
+        <v>-3.8789999999999998E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <f>F5*D5</f>
+        <v>-7.1515191466849748</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5:H6" si="1">C5*2.2*E5/25.4</f>
+        <v>-63.163559055118121</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" ref="I5:I6" si="2">H5/12</f>
+        <v>-5.2636299212598434</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J6" si="3">C5*2.2*16*E5/25.4</f>
+        <v>-1010.6169448818899</v>
+      </c>
+      <c r="K5" s="10">
+        <v>30</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L6" si="4">G5/$K5</f>
+        <v>-0.23838397155616584</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" ref="M5:M6" si="5">H5/$K5</f>
+        <v>-2.1054519685039375</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N6" si="6">I5/$K5</f>
+        <v>-0.17545433070866145</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" ref="O5:O6" si="7">J5/$K5</f>
+        <v>-33.687231496062999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10">
+        <v>57.683</v>
+      </c>
+      <c r="D6" s="10">
+        <f>C6*9.8066500286389</f>
+        <v>565.67699360197764</v>
+      </c>
+      <c r="E6" s="10">
+        <v>57.692</v>
+      </c>
+      <c r="F6" s="10">
+        <f>E6/1000</f>
+        <v>5.7692E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <f>F6*D6</f>
+        <v>32.635037114885293</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>288.2387716220473</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="2"/>
+        <v>24.019897635170608</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="3"/>
+        <v>4611.8203459527567</v>
+      </c>
+      <c r="K6" s="10">
+        <v>30</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0878345704961765</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="5"/>
+        <v>9.6079590540682425</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="6"/>
+        <v>0.80066325450568698</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="7"/>
+        <v>153.72734486509188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>